--- a/dynamic_context_server/ref/foundation/climate/hadTemps.xlsx
+++ b/dynamic_context_server/ref/foundation/climate/hadTemps.xlsx
@@ -5887,11 +5887,11 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.20555</cdr:x>
+      <cdr:x>0.1823</cdr:x>
       <cdr:y>0.79501</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.37333</cdr:x>
+      <cdr:x>0.35009</cdr:x>
       <cdr:y>0.88235</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
@@ -5901,7 +5901,7 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1937040" y="4248151"/>
+          <a:off x="1717965" y="4248151"/>
           <a:ext cx="1581150" cy="466725"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
@@ -5912,16 +5912,25 @@
         <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
         <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>depressed SST </a:t>
+            <a:t>cooler SST</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" i="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" i="0"/>
+            <a:t> </a:t>
+          </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" i="0"/>
+            <a:t>warmer</a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" i="1"/>
-            <a:t>wrt </a:t>
+            <a:t> </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
@@ -6081,12 +6090,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.58826</cdr:x>
-      <cdr:y>0.76292</cdr:y>
+      <cdr:x>0.60039</cdr:x>
+      <cdr:y>0.79857</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.75604</cdr:x>
-      <cdr:y>0.84492</cdr:y>
+      <cdr:x>0.76817</cdr:x>
+      <cdr:y>0.8467</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -6095,8 +6104,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="5543550" y="4076699"/>
-          <a:ext cx="1581150" cy="438151"/>
+          <a:off x="5657850" y="4267199"/>
+          <a:ext cx="1581150" cy="257177"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -6154,14 +6163,7 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>depressed SST </a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US" sz="1100"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>elevated Land</a:t>
+            <a:t>cooler SST </a:t>
           </a:r>
         </a:p>
       </cdr:txBody>
